--- a/analyze_nhej/library_info.xlsx
+++ b/analyze_nhej/library_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="362">
   <si>
     <t>library</t>
   </si>
@@ -421,676 +421,685 @@
     <t>R2</t>
   </si>
   <si>
-    <t>yjl89_WT_sgCD_R1_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl89_WT_sgCD_R2_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl90_WT_sgCD_R1_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl90_WT_sgCD_R2_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl91_WT_sgCD_R1_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl91_WT_sgCD_R2_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl92_WT_sgCD_R1_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl92_WT_sgCD_R2_antisense_1</t>
-  </si>
-  <si>
-    <t>yjl93_WT_sgCD_R1_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl93_WT_sgCD_R2_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl94_WT_sgCD_R1_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl94_WT_sgCD_R2_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl95_WT_sgCD_R1_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl95_WT_sgCD_R2_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl96_WT_sgCD_R1_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl96_WT_sgCD_R2_splicing_1</t>
-  </si>
-  <si>
-    <t>yjl217_WT_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl217_WT_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl218_WT_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl218_WT_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl219_WT_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl219_WT_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl220_WT_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl220_WT_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl221_WT_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl221_WT_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl222_WT_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl222_WT_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl223_WT_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl223_WT_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl224_WT_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl224_WT_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl225_WT_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl225_WT_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl226_WT_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl226_WT_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl227_WT_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl227_WT_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl228_WT_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl228_WT_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl229_KO_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl229_KO_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl230_KO_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl230_KO_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl231_KO_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl231_KO_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl232_KO_sgAB_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl232_KO_sgAB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl233_KO_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl233_KO_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl234_KO_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl234_KO_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl235_KO_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl235_KO_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl236_KO_sgAB_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl236_KO_sgAB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl237_KO_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl237_KO_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl238_KO_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl238_KO_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl239_KO_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl239_KO_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl240_KO_sgAB_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl240_KO_sgAB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl244_WT_sgA_R1_sense_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl244_WT_sgB_R2_sense_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl245_WT_sgA_R1_branch_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl245_WT_sgB_R2_branch_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl246_WT_sgA_R1_cmv_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl246_WT_sgB_R2_cmv_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl255_WT_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl255_WT_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl256_WT_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl256_WT_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl257_WT_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl257_WT_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl258_WT_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl258_WT_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl259_WT_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl259_WT_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl260_WT_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl260_WT_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl261_WT_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl261_WT_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl262_WT_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl262_WT_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl263_WT_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl263_WT_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl264_WT_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl264_WT_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl265_WT_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl265_WT_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl266_WT_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl266_WT_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl267_WT_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl267_WT_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl268_WT_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl268_WT_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl269_WT_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl269_WT_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl270_WT_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl270_WT_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl271_WT_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl271_WT_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl272_WT_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl272_WT_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl273_WT_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl273_WT_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl274_WT_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl274_WT_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl275_WT_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl275_WT_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl276_WT_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl276_WT_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl277_WT_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl277_WT_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl278_WT_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl278_WT_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl281_KO_sgA_R1_sense_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl281_KO_sgB_R2_sense_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl282_KO_sgA_R1_branch_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl282_KO_sgB_R2_branch_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl283_KO_sgA_R1_cmv_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl283_KO_sgB_R2_cmv_noDSB_1</t>
-  </si>
-  <si>
-    <t>yjl292_KO_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl292_KO_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl293_KO_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl293_KO_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl294_KO_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl294_KO_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl295_KO_sgA_R1_sense_1</t>
-  </si>
-  <si>
-    <t>yjl295_KO_sgA_R1_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl296_KO_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl296_KO_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl297_KO_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl297_KO_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl298_KO_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl298_KO_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl299_KO_sgA_R1_branch_1</t>
-  </si>
-  <si>
-    <t>yjl299_KO_sgA_R1_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl300_KO_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl300_KO_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl301_KO_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl301_KO_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl302_KO_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl302_KO_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl303_KO_sgA_R1_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl303_KO_sgA_R1_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl304_KO_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl304_KO_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl305_KO_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl305_KO_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl306_KO_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl306_KO_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl307_KO_sgB_R2_sense_1</t>
-  </si>
-  <si>
-    <t>yjl307_KO_sgB_R2_sense_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl308_KO_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl308_KO_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl309_KO_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl309_KO_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl310_KO_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl310_KO_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl311_KO_sgB_R2_branch_1</t>
-  </si>
-  <si>
-    <t>yjl311_KO_sgB_R2_branch_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl312_KO_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl312_KO_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl313_KO_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl313_KO_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl314_KO_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl314_KO_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl315_KO_sgB_R2_cmv_1</t>
-  </si>
-  <si>
-    <t>yjl315_KO_sgB_R2_cmv_30bpDown_1</t>
-  </si>
-  <si>
-    <t>yjl349_WT_sgCD_R1_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl349_WT_sgCD_R2_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl350_WT_sgCD_R1_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl350_WT_sgCD_R2_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl351_WT_sgCD_R1_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl351_WT_sgCD_R2_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl352_WT_sgCD_R1_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl352_WT_sgCD_R2_antisense_2</t>
-  </si>
-  <si>
-    <t>yjl353_WT_sgCD_R1_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl353_WT_sgCD_R2_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl354_WT_sgCD_R1_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl354_WT_sgCD_R2_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl355_WT_sgCD_R1_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl355_WT_sgCD_R2_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl356_WT_sgCD_R1_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl356_WT_sgCD_R2_splicing_2</t>
-  </si>
-  <si>
-    <t>yjl89_yjl349_WT_sgCD_R1_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl89_yjl349_WT_sgCD_R2_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl90_yjl350_WT_sgCD_R1_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl90_yjl350_WT_sgCD_R2_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl91_yjl351_WT_sgCD_R1_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl91_yjl351_WT_sgCD_R2_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl92_yjl352_WT_sgCD_R1_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl92_yjl352_WT_sgCD_R2_antisense_3</t>
-  </si>
-  <si>
-    <t>yjl93_yjl353_WT_sgCD_R1_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl93_yjl353_WT_sgCD_R2_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl94_yjl354_WT_sgCD_R1_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl94_yjl354_WT_sgCD_R2_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl95_yjl355_WT_sgCD_R1_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl95_yjl355_WT_sgCD_R2_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl96_yjl356_WT_sgCD_R1_splicing_3</t>
-  </si>
-  <si>
-    <t>yjl96_yjl356_WT_sgCD_R2_splicing_3</t>
-  </si>
-  <si>
-    <t>2DSBanti_R1_antisense_1.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R2_antisense_1.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R1_splicing_1.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R2_splicing_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R1_sense_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R2_sense_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R1_branch_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R2_branch_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R1_cmv_1.fa</t>
-  </si>
-  <si>
-    <t>2DSB_R2_cmv_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R1_sense_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R2_sense_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R1_branch_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R2_branch_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R1_cmv_1.fa</t>
-  </si>
-  <si>
-    <t>1DSB_R2_cmv_1.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R1_antisense_2.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R2_antisense_2.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R1_splicing_2.fa</t>
-  </si>
-  <si>
-    <t>2DSBanti_R2_splicing_2.fa</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>merged</t>
+  </si>
+  <si>
+    <t>yjl89_WT_sgCD_R1_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl89_WT_sgCD_R2_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl90_WT_sgCD_R1_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl90_WT_sgCD_R2_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl91_WT_sgCD_R1_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl91_WT_sgCD_R2_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl92_WT_sgCD_R1_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl92_WT_sgCD_R2_antisense_old</t>
+  </si>
+  <si>
+    <t>yjl93_WT_sgCD_R1_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl93_WT_sgCD_R2_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl94_WT_sgCD_R1_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl94_WT_sgCD_R2_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl95_WT_sgCD_R1_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl95_WT_sgCD_R2_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl96_WT_sgCD_R1_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl96_WT_sgCD_R2_splicing_old</t>
+  </si>
+  <si>
+    <t>yjl217_WT_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl217_WT_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl218_WT_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl218_WT_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl219_WT_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl219_WT_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl220_WT_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl220_WT_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl221_WT_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl221_WT_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl222_WT_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl222_WT_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl223_WT_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl223_WT_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl224_WT_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl224_WT_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl225_WT_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl225_WT_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl226_WT_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl226_WT_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl227_WT_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl227_WT_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl228_WT_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl228_WT_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl229_KO_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl229_KO_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl230_KO_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl230_KO_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl231_KO_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl231_KO_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl232_KO_sgAB_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl232_KO_sgAB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl233_KO_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl233_KO_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl234_KO_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl234_KO_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl235_KO_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl235_KO_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl236_KO_sgAB_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl236_KO_sgAB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl237_KO_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl237_KO_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl238_KO_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl238_KO_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl239_KO_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl239_KO_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl240_KO_sgAB_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl240_KO_sgAB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl244_WT_sgA_R1_sense_noDSB</t>
+  </si>
+  <si>
+    <t>yjl244_WT_sgB_R2_sense_noDSB</t>
+  </si>
+  <si>
+    <t>yjl245_WT_sgA_R1_branch_noDSB</t>
+  </si>
+  <si>
+    <t>yjl245_WT_sgB_R2_branch_noDSB</t>
+  </si>
+  <si>
+    <t>yjl246_WT_sgA_R1_cmv_noDSB</t>
+  </si>
+  <si>
+    <t>yjl246_WT_sgB_R2_cmv_noDSB</t>
+  </si>
+  <si>
+    <t>yjl255_WT_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl255_WT_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl256_WT_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl256_WT_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl257_WT_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl257_WT_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl258_WT_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl258_WT_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl259_WT_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl259_WT_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl260_WT_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl260_WT_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl261_WT_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl261_WT_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl262_WT_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl262_WT_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl263_WT_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl263_WT_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl264_WT_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl264_WT_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl265_WT_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl265_WT_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl266_WT_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl266_WT_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl267_WT_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl267_WT_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl268_WT_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl268_WT_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl269_WT_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl269_WT_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl270_WT_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl270_WT_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl271_WT_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl271_WT_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl272_WT_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl272_WT_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl273_WT_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl273_WT_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl274_WT_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl274_WT_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl275_WT_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl275_WT_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl276_WT_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl276_WT_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl277_WT_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl277_WT_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl278_WT_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl278_WT_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl281_KO_sgA_R1_sense_noDSB</t>
+  </si>
+  <si>
+    <t>yjl281_KO_sgB_R2_sense_noDSB</t>
+  </si>
+  <si>
+    <t>yjl282_KO_sgA_R1_branch_noDSB</t>
+  </si>
+  <si>
+    <t>yjl282_KO_sgB_R2_branch_noDSB</t>
+  </si>
+  <si>
+    <t>yjl283_KO_sgA_R1_cmv_noDSB</t>
+  </si>
+  <si>
+    <t>yjl283_KO_sgB_R2_cmv_noDSB</t>
+  </si>
+  <si>
+    <t>yjl292_KO_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl292_KO_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl293_KO_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl293_KO_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl294_KO_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl294_KO_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl295_KO_sgA_R1_sense</t>
+  </si>
+  <si>
+    <t>yjl295_KO_sgA_R1_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl296_KO_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl296_KO_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl297_KO_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl297_KO_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl298_KO_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl298_KO_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl299_KO_sgA_R1_branch</t>
+  </si>
+  <si>
+    <t>yjl299_KO_sgA_R1_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl300_KO_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl300_KO_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl301_KO_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl301_KO_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl302_KO_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl302_KO_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl303_KO_sgA_R1_cmv</t>
+  </si>
+  <si>
+    <t>yjl303_KO_sgA_R1_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl304_KO_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl304_KO_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl305_KO_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl305_KO_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl306_KO_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl306_KO_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl307_KO_sgB_R2_sense</t>
+  </si>
+  <si>
+    <t>yjl307_KO_sgB_R2_sense_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl308_KO_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl308_KO_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl309_KO_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl309_KO_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl310_KO_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl310_KO_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl311_KO_sgB_R2_branch</t>
+  </si>
+  <si>
+    <t>yjl311_KO_sgB_R2_branch_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl312_KO_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl312_KO_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl313_KO_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl313_KO_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl314_KO_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl314_KO_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl315_KO_sgB_R2_cmv</t>
+  </si>
+  <si>
+    <t>yjl315_KO_sgB_R2_cmv_30bpDown</t>
+  </si>
+  <si>
+    <t>yjl349_WT_sgCD_R1_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl349_WT_sgCD_R2_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl350_WT_sgCD_R1_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl350_WT_sgCD_R2_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl351_WT_sgCD_R1_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl351_WT_sgCD_R2_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl352_WT_sgCD_R1_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl352_WT_sgCD_R2_antisense_new</t>
+  </si>
+  <si>
+    <t>yjl353_WT_sgCD_R1_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl353_WT_sgCD_R2_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl354_WT_sgCD_R1_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl354_WT_sgCD_R2_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl355_WT_sgCD_R1_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl355_WT_sgCD_R2_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl356_WT_sgCD_R1_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl356_WT_sgCD_R2_splicing_new</t>
+  </si>
+  <si>
+    <t>yjl89_yjl349_WT_sgCD_R1_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl89_yjl349_WT_sgCD_R2_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl90_yjl350_WT_sgCD_R1_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl90_yjl350_WT_sgCD_R2_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl91_yjl351_WT_sgCD_R1_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl91_yjl351_WT_sgCD_R2_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl92_yjl352_WT_sgCD_R1_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl92_yjl352_WT_sgCD_R2_antisense_merged</t>
+  </si>
+  <si>
+    <t>yjl93_yjl353_WT_sgCD_R1_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl93_yjl353_WT_sgCD_R2_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl94_yjl354_WT_sgCD_R1_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl94_yjl354_WT_sgCD_R2_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl95_yjl355_WT_sgCD_R1_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl95_yjl355_WT_sgCD_R2_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl96_yjl356_WT_sgCD_R1_splicing_merged</t>
+  </si>
+  <si>
+    <t>yjl96_yjl356_WT_sgCD_R2_splicing_merged</t>
+  </si>
+  <si>
+    <t>2DSBanti_R1_antisense_old.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R2_antisense_old.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R1_splicing_old.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R2_splicing_old.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R1_sense.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R2_sense.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R1_branch.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R2_branch.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R1_cmv.fa</t>
+  </si>
+  <si>
+    <t>2DSB_R2_cmv.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R1_sense.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R2_sense.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R1_branch.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R2_branch.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R1_cmv.fa</t>
+  </si>
+  <si>
+    <t>1DSB_R2_cmv.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R1_antisense_new.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R2_antisense_new.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R1_splicing_new.fa</t>
+  </si>
+  <si>
+    <t>2DSBanti_R2_splicing_new.fa</t>
   </si>
 </sst>
 </file>
@@ -1526,14 +1535,14 @@
       <c r="I2" t="s">
         <v>133</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" t="s">
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M2">
         <v>50</v>
@@ -1573,14 +1582,14 @@
       <c r="I3" t="s">
         <v>134</v>
       </c>
-      <c r="J3">
-        <v>1</v>
+      <c r="J3" t="s">
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M3">
         <v>47</v>
@@ -1620,14 +1629,14 @@
       <c r="I4" t="s">
         <v>133</v>
       </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="J4" t="s">
+        <v>135</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M4">
         <v>50</v>
@@ -1667,14 +1676,14 @@
       <c r="I5" t="s">
         <v>134</v>
       </c>
-      <c r="J5">
-        <v>1</v>
+      <c r="J5" t="s">
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M5">
         <v>47</v>
@@ -1714,14 +1723,14 @@
       <c r="I6" t="s">
         <v>133</v>
       </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="J6" t="s">
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M6">
         <v>50</v>
@@ -1761,14 +1770,14 @@
       <c r="I7" t="s">
         <v>134</v>
       </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="J7" t="s">
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M7">
         <v>47</v>
@@ -1808,14 +1817,14 @@
       <c r="I8" t="s">
         <v>133</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" t="s">
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M8">
         <v>50</v>
@@ -1855,14 +1864,14 @@
       <c r="I9" t="s">
         <v>134</v>
       </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="J9" t="s">
+        <v>135</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M9">
         <v>47</v>
@@ -1902,14 +1911,14 @@
       <c r="I10" t="s">
         <v>133</v>
       </c>
-      <c r="J10">
-        <v>1</v>
+      <c r="J10" t="s">
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M10">
         <v>50</v>
@@ -1949,14 +1958,14 @@
       <c r="I11" t="s">
         <v>134</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="J11" t="s">
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M11">
         <v>47</v>
@@ -1996,14 +2005,14 @@
       <c r="I12" t="s">
         <v>133</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="J12" t="s">
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M12">
         <v>50</v>
@@ -2043,14 +2052,14 @@
       <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="J13">
-        <v>1</v>
+      <c r="J13" t="s">
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M13">
         <v>47</v>
@@ -2090,14 +2099,14 @@
       <c r="I14" t="s">
         <v>133</v>
       </c>
-      <c r="J14">
-        <v>1</v>
+      <c r="J14" t="s">
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M14">
         <v>50</v>
@@ -2137,14 +2146,14 @@
       <c r="I15" t="s">
         <v>134</v>
       </c>
-      <c r="J15">
-        <v>1</v>
+      <c r="J15" t="s">
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M15">
         <v>47</v>
@@ -2184,14 +2193,14 @@
       <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="J16" t="s">
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M16">
         <v>50</v>
@@ -2231,14 +2240,14 @@
       <c r="I17" t="s">
         <v>134</v>
       </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="J17" t="s">
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M17">
         <v>47</v>
@@ -2278,14 +2287,14 @@
       <c r="I18" t="s">
         <v>133</v>
       </c>
-      <c r="J18">
-        <v>1</v>
+      <c r="J18" t="s">
+        <v>118</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M18">
         <v>67</v>
@@ -2325,14 +2334,14 @@
       <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="J19">
-        <v>1</v>
+      <c r="J19" t="s">
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M19">
         <v>46</v>
@@ -2372,14 +2381,14 @@
       <c r="I20" t="s">
         <v>133</v>
       </c>
-      <c r="J20">
-        <v>1</v>
+      <c r="J20" t="s">
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M20">
         <v>67</v>
@@ -2419,14 +2428,14 @@
       <c r="I21" t="s">
         <v>134</v>
       </c>
-      <c r="J21">
-        <v>1</v>
+      <c r="J21" t="s">
+        <v>118</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M21">
         <v>46</v>
@@ -2466,14 +2475,14 @@
       <c r="I22" t="s">
         <v>133</v>
       </c>
-      <c r="J22">
-        <v>1</v>
+      <c r="J22" t="s">
+        <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M22">
         <v>67</v>
@@ -2513,14 +2522,14 @@
       <c r="I23" t="s">
         <v>134</v>
       </c>
-      <c r="J23">
-        <v>1</v>
+      <c r="J23" t="s">
+        <v>118</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M23">
         <v>46</v>
@@ -2560,14 +2569,14 @@
       <c r="I24" t="s">
         <v>133</v>
       </c>
-      <c r="J24">
-        <v>1</v>
+      <c r="J24" t="s">
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M24">
         <v>67</v>
@@ -2607,14 +2616,14 @@
       <c r="I25" t="s">
         <v>134</v>
       </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="J25" t="s">
+        <v>118</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M25">
         <v>46</v>
@@ -2654,14 +2663,14 @@
       <c r="I26" t="s">
         <v>133</v>
       </c>
-      <c r="J26">
-        <v>1</v>
+      <c r="J26" t="s">
+        <v>118</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M26">
         <v>67</v>
@@ -2701,14 +2710,14 @@
       <c r="I27" t="s">
         <v>134</v>
       </c>
-      <c r="J27">
-        <v>1</v>
+      <c r="J27" t="s">
+        <v>118</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M27">
         <v>46</v>
@@ -2748,14 +2757,14 @@
       <c r="I28" t="s">
         <v>133</v>
       </c>
-      <c r="J28">
-        <v>1</v>
+      <c r="J28" t="s">
+        <v>118</v>
       </c>
       <c r="K28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M28">
         <v>67</v>
@@ -2795,14 +2804,14 @@
       <c r="I29" t="s">
         <v>134</v>
       </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="J29" t="s">
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M29">
         <v>46</v>
@@ -2842,14 +2851,14 @@
       <c r="I30" t="s">
         <v>133</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="J30" t="s">
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M30">
         <v>67</v>
@@ -2889,14 +2898,14 @@
       <c r="I31" t="s">
         <v>134</v>
       </c>
-      <c r="J31">
-        <v>1</v>
+      <c r="J31" t="s">
+        <v>118</v>
       </c>
       <c r="K31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M31">
         <v>46</v>
@@ -2936,14 +2945,14 @@
       <c r="I32" t="s">
         <v>133</v>
       </c>
-      <c r="J32">
-        <v>1</v>
+      <c r="J32" t="s">
+        <v>118</v>
       </c>
       <c r="K32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M32">
         <v>67</v>
@@ -2983,14 +2992,14 @@
       <c r="I33" t="s">
         <v>134</v>
       </c>
-      <c r="J33">
-        <v>1</v>
+      <c r="J33" t="s">
+        <v>118</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M33">
         <v>46</v>
@@ -3030,14 +3039,14 @@
       <c r="I34" t="s">
         <v>133</v>
       </c>
-      <c r="J34">
-        <v>1</v>
+      <c r="J34" t="s">
+        <v>118</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M34">
         <v>67</v>
@@ -3077,14 +3086,14 @@
       <c r="I35" t="s">
         <v>134</v>
       </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="J35" t="s">
+        <v>118</v>
       </c>
       <c r="K35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M35">
         <v>46</v>
@@ -3124,14 +3133,14 @@
       <c r="I36" t="s">
         <v>133</v>
       </c>
-      <c r="J36">
-        <v>1</v>
+      <c r="J36" t="s">
+        <v>118</v>
       </c>
       <c r="K36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L36" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M36">
         <v>67</v>
@@ -3171,14 +3180,14 @@
       <c r="I37" t="s">
         <v>134</v>
       </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="J37" t="s">
+        <v>118</v>
       </c>
       <c r="K37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M37">
         <v>46</v>
@@ -3218,14 +3227,14 @@
       <c r="I38" t="s">
         <v>133</v>
       </c>
-      <c r="J38">
-        <v>1</v>
+      <c r="J38" t="s">
+        <v>118</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M38">
         <v>67</v>
@@ -3265,14 +3274,14 @@
       <c r="I39" t="s">
         <v>134</v>
       </c>
-      <c r="J39">
-        <v>1</v>
+      <c r="J39" t="s">
+        <v>118</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M39">
         <v>46</v>
@@ -3312,14 +3321,14 @@
       <c r="I40" t="s">
         <v>133</v>
       </c>
-      <c r="J40">
-        <v>1</v>
+      <c r="J40" t="s">
+        <v>118</v>
       </c>
       <c r="K40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M40">
         <v>67</v>
@@ -3359,14 +3368,14 @@
       <c r="I41" t="s">
         <v>134</v>
       </c>
-      <c r="J41">
-        <v>1</v>
+      <c r="J41" t="s">
+        <v>118</v>
       </c>
       <c r="K41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M41">
         <v>46</v>
@@ -3406,14 +3415,14 @@
       <c r="I42" t="s">
         <v>133</v>
       </c>
-      <c r="J42">
-        <v>1</v>
+      <c r="J42" t="s">
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M42">
         <v>67</v>
@@ -3453,14 +3462,14 @@
       <c r="I43" t="s">
         <v>134</v>
       </c>
-      <c r="J43">
-        <v>1</v>
+      <c r="J43" t="s">
+        <v>118</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M43">
         <v>46</v>
@@ -3500,14 +3509,14 @@
       <c r="I44" t="s">
         <v>133</v>
       </c>
-      <c r="J44">
-        <v>1</v>
+      <c r="J44" t="s">
+        <v>118</v>
       </c>
       <c r="K44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M44">
         <v>67</v>
@@ -3547,14 +3556,14 @@
       <c r="I45" t="s">
         <v>134</v>
       </c>
-      <c r="J45">
-        <v>1</v>
+      <c r="J45" t="s">
+        <v>118</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M45">
         <v>46</v>
@@ -3594,14 +3603,14 @@
       <c r="I46" t="s">
         <v>133</v>
       </c>
-      <c r="J46">
-        <v>1</v>
+      <c r="J46" t="s">
+        <v>118</v>
       </c>
       <c r="K46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M46">
         <v>67</v>
@@ -3641,14 +3650,14 @@
       <c r="I47" t="s">
         <v>134</v>
       </c>
-      <c r="J47">
-        <v>1</v>
+      <c r="J47" t="s">
+        <v>118</v>
       </c>
       <c r="K47" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M47">
         <v>46</v>
@@ -3688,14 +3697,14 @@
       <c r="I48" t="s">
         <v>133</v>
       </c>
-      <c r="J48">
-        <v>1</v>
+      <c r="J48" t="s">
+        <v>118</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M48">
         <v>67</v>
@@ -3735,14 +3744,14 @@
       <c r="I49" t="s">
         <v>134</v>
       </c>
-      <c r="J49">
-        <v>1</v>
+      <c r="J49" t="s">
+        <v>118</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M49">
         <v>46</v>
@@ -3782,14 +3791,14 @@
       <c r="I50" t="s">
         <v>133</v>
       </c>
-      <c r="J50">
-        <v>1</v>
+      <c r="J50" t="s">
+        <v>118</v>
       </c>
       <c r="K50" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M50">
         <v>67</v>
@@ -3829,14 +3838,14 @@
       <c r="I51" t="s">
         <v>134</v>
       </c>
-      <c r="J51">
-        <v>1</v>
+      <c r="J51" t="s">
+        <v>118</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M51">
         <v>46</v>
@@ -3876,14 +3885,14 @@
       <c r="I52" t="s">
         <v>133</v>
       </c>
-      <c r="J52">
-        <v>1</v>
+      <c r="J52" t="s">
+        <v>118</v>
       </c>
       <c r="K52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M52">
         <v>67</v>
@@ -3923,14 +3932,14 @@
       <c r="I53" t="s">
         <v>134</v>
       </c>
-      <c r="J53">
-        <v>1</v>
+      <c r="J53" t="s">
+        <v>118</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M53">
         <v>46</v>
@@ -3970,14 +3979,14 @@
       <c r="I54" t="s">
         <v>133</v>
       </c>
-      <c r="J54">
-        <v>1</v>
+      <c r="J54" t="s">
+        <v>118</v>
       </c>
       <c r="K54" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M54">
         <v>67</v>
@@ -4017,14 +4026,14 @@
       <c r="I55" t="s">
         <v>134</v>
       </c>
-      <c r="J55">
-        <v>1</v>
+      <c r="J55" t="s">
+        <v>118</v>
       </c>
       <c r="K55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M55">
         <v>46</v>
@@ -4064,14 +4073,14 @@
       <c r="I56" t="s">
         <v>133</v>
       </c>
-      <c r="J56">
-        <v>1</v>
+      <c r="J56" t="s">
+        <v>118</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M56">
         <v>67</v>
@@ -4111,14 +4120,14 @@
       <c r="I57" t="s">
         <v>134</v>
       </c>
-      <c r="J57">
-        <v>1</v>
+      <c r="J57" t="s">
+        <v>118</v>
       </c>
       <c r="K57" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M57">
         <v>46</v>
@@ -4158,14 +4167,14 @@
       <c r="I58" t="s">
         <v>133</v>
       </c>
-      <c r="J58">
-        <v>1</v>
+      <c r="J58" t="s">
+        <v>118</v>
       </c>
       <c r="K58" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M58">
         <v>67</v>
@@ -4205,14 +4214,14 @@
       <c r="I59" t="s">
         <v>134</v>
       </c>
-      <c r="J59">
-        <v>1</v>
+      <c r="J59" t="s">
+        <v>118</v>
       </c>
       <c r="K59" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L59" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M59">
         <v>46</v>
@@ -4252,14 +4261,14 @@
       <c r="I60" t="s">
         <v>133</v>
       </c>
-      <c r="J60">
-        <v>1</v>
+      <c r="J60" t="s">
+        <v>118</v>
       </c>
       <c r="K60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L60" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M60">
         <v>67</v>
@@ -4299,14 +4308,14 @@
       <c r="I61" t="s">
         <v>134</v>
       </c>
-      <c r="J61">
-        <v>1</v>
+      <c r="J61" t="s">
+        <v>118</v>
       </c>
       <c r="K61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L61" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -4346,14 +4355,14 @@
       <c r="I62" t="s">
         <v>133</v>
       </c>
-      <c r="J62">
-        <v>1</v>
+      <c r="J62" t="s">
+        <v>118</v>
       </c>
       <c r="K62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M62">
         <v>67</v>
@@ -4393,14 +4402,14 @@
       <c r="I63" t="s">
         <v>134</v>
       </c>
-      <c r="J63">
-        <v>1</v>
+      <c r="J63" t="s">
+        <v>118</v>
       </c>
       <c r="K63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L63" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M63">
         <v>46</v>
@@ -4440,14 +4449,14 @@
       <c r="I64" t="s">
         <v>133</v>
       </c>
-      <c r="J64">
-        <v>1</v>
+      <c r="J64" t="s">
+        <v>118</v>
       </c>
       <c r="K64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M64">
         <v>67</v>
@@ -4487,14 +4496,14 @@
       <c r="I65" t="s">
         <v>134</v>
       </c>
-      <c r="J65">
-        <v>1</v>
+      <c r="J65" t="s">
+        <v>118</v>
       </c>
       <c r="K65" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M65">
         <v>46</v>
@@ -4534,14 +4543,14 @@
       <c r="I66" t="s">
         <v>133</v>
       </c>
-      <c r="J66">
-        <v>1</v>
+      <c r="J66" t="s">
+        <v>118</v>
       </c>
       <c r="K66" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L66" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M66">
         <v>67</v>
@@ -4581,14 +4590,14 @@
       <c r="I67" t="s">
         <v>134</v>
       </c>
-      <c r="J67">
-        <v>1</v>
+      <c r="J67" t="s">
+        <v>118</v>
       </c>
       <c r="K67" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L67" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M67">
         <v>46</v>
@@ -4628,14 +4637,14 @@
       <c r="I68" t="s">
         <v>133</v>
       </c>
-      <c r="J68">
-        <v>1</v>
+      <c r="J68" t="s">
+        <v>118</v>
       </c>
       <c r="K68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M68">
         <v>67</v>
@@ -4675,14 +4684,14 @@
       <c r="I69" t="s">
         <v>134</v>
       </c>
-      <c r="J69">
-        <v>1</v>
+      <c r="J69" t="s">
+        <v>118</v>
       </c>
       <c r="K69" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L69" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M69">
         <v>46</v>
@@ -4722,14 +4731,14 @@
       <c r="I70" t="s">
         <v>133</v>
       </c>
-      <c r="J70">
-        <v>1</v>
+      <c r="J70" t="s">
+        <v>118</v>
       </c>
       <c r="K70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L70" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M70">
         <v>67</v>
@@ -4769,14 +4778,14 @@
       <c r="I71" t="s">
         <v>134</v>
       </c>
-      <c r="J71">
-        <v>1</v>
+      <c r="J71" t="s">
+        <v>118</v>
       </c>
       <c r="K71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L71" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M71">
         <v>46</v>
@@ -4816,14 +4825,14 @@
       <c r="I72" t="s">
         <v>133</v>
       </c>
-      <c r="J72">
-        <v>1</v>
+      <c r="J72" t="s">
+        <v>118</v>
       </c>
       <c r="K72" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M72">
         <v>67</v>
@@ -4863,14 +4872,14 @@
       <c r="I73" t="s">
         <v>133</v>
       </c>
-      <c r="J73">
-        <v>1</v>
+      <c r="J73" t="s">
+        <v>118</v>
       </c>
       <c r="K73" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M73">
         <v>97</v>
@@ -4910,14 +4919,14 @@
       <c r="I74" t="s">
         <v>133</v>
       </c>
-      <c r="J74">
-        <v>1</v>
+      <c r="J74" t="s">
+        <v>118</v>
       </c>
       <c r="K74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M74">
         <v>67</v>
@@ -4957,14 +4966,14 @@
       <c r="I75" t="s">
         <v>133</v>
       </c>
-      <c r="J75">
-        <v>1</v>
+      <c r="J75" t="s">
+        <v>118</v>
       </c>
       <c r="K75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L75" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M75">
         <v>97</v>
@@ -5004,14 +5013,14 @@
       <c r="I76" t="s">
         <v>133</v>
       </c>
-      <c r="J76">
-        <v>1</v>
+      <c r="J76" t="s">
+        <v>118</v>
       </c>
       <c r="K76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M76">
         <v>67</v>
@@ -5051,14 +5060,14 @@
       <c r="I77" t="s">
         <v>133</v>
       </c>
-      <c r="J77">
-        <v>1</v>
+      <c r="J77" t="s">
+        <v>118</v>
       </c>
       <c r="K77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M77">
         <v>97</v>
@@ -5098,14 +5107,14 @@
       <c r="I78" t="s">
         <v>133</v>
       </c>
-      <c r="J78">
-        <v>1</v>
+      <c r="J78" t="s">
+        <v>118</v>
       </c>
       <c r="K78" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M78">
         <v>67</v>
@@ -5145,14 +5154,14 @@
       <c r="I79" t="s">
         <v>133</v>
       </c>
-      <c r="J79">
-        <v>1</v>
+      <c r="J79" t="s">
+        <v>118</v>
       </c>
       <c r="K79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M79">
         <v>97</v>
@@ -5192,14 +5201,14 @@
       <c r="I80" t="s">
         <v>133</v>
       </c>
-      <c r="J80">
-        <v>1</v>
+      <c r="J80" t="s">
+        <v>118</v>
       </c>
       <c r="K80" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M80">
         <v>67</v>
@@ -5239,14 +5248,14 @@
       <c r="I81" t="s">
         <v>133</v>
       </c>
-      <c r="J81">
-        <v>1</v>
+      <c r="J81" t="s">
+        <v>118</v>
       </c>
       <c r="K81" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L81" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M81">
         <v>97</v>
@@ -5286,14 +5295,14 @@
       <c r="I82" t="s">
         <v>133</v>
       </c>
-      <c r="J82">
-        <v>1</v>
+      <c r="J82" t="s">
+        <v>118</v>
       </c>
       <c r="K82" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M82">
         <v>67</v>
@@ -5333,14 +5342,14 @@
       <c r="I83" t="s">
         <v>133</v>
       </c>
-      <c r="J83">
-        <v>1</v>
+      <c r="J83" t="s">
+        <v>118</v>
       </c>
       <c r="K83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L83" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M83">
         <v>97</v>
@@ -5380,14 +5389,14 @@
       <c r="I84" t="s">
         <v>133</v>
       </c>
-      <c r="J84">
-        <v>1</v>
+      <c r="J84" t="s">
+        <v>118</v>
       </c>
       <c r="K84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L84" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M84">
         <v>67</v>
@@ -5427,14 +5436,14 @@
       <c r="I85" t="s">
         <v>133</v>
       </c>
-      <c r="J85">
-        <v>1</v>
+      <c r="J85" t="s">
+        <v>118</v>
       </c>
       <c r="K85" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L85" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M85">
         <v>97</v>
@@ -5474,14 +5483,14 @@
       <c r="I86" t="s">
         <v>133</v>
       </c>
-      <c r="J86">
-        <v>1</v>
+      <c r="J86" t="s">
+        <v>118</v>
       </c>
       <c r="K86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L86" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M86">
         <v>67</v>
@@ -5521,14 +5530,14 @@
       <c r="I87" t="s">
         <v>133</v>
       </c>
-      <c r="J87">
-        <v>1</v>
+      <c r="J87" t="s">
+        <v>118</v>
       </c>
       <c r="K87" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L87" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M87">
         <v>97</v>
@@ -5568,14 +5577,14 @@
       <c r="I88" t="s">
         <v>133</v>
       </c>
-      <c r="J88">
-        <v>1</v>
+      <c r="J88" t="s">
+        <v>118</v>
       </c>
       <c r="K88" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L88" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M88">
         <v>67</v>
@@ -5615,14 +5624,14 @@
       <c r="I89" t="s">
         <v>133</v>
       </c>
-      <c r="J89">
-        <v>1</v>
+      <c r="J89" t="s">
+        <v>118</v>
       </c>
       <c r="K89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L89" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M89">
         <v>97</v>
@@ -5662,14 +5671,14 @@
       <c r="I90" t="s">
         <v>133</v>
       </c>
-      <c r="J90">
-        <v>1</v>
+      <c r="J90" t="s">
+        <v>118</v>
       </c>
       <c r="K90" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L90" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M90">
         <v>67</v>
@@ -5709,14 +5718,14 @@
       <c r="I91" t="s">
         <v>133</v>
       </c>
-      <c r="J91">
-        <v>1</v>
+      <c r="J91" t="s">
+        <v>118</v>
       </c>
       <c r="K91" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M91">
         <v>97</v>
@@ -5756,14 +5765,14 @@
       <c r="I92" t="s">
         <v>133</v>
       </c>
-      <c r="J92">
-        <v>1</v>
+      <c r="J92" t="s">
+        <v>118</v>
       </c>
       <c r="K92" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L92" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M92">
         <v>67</v>
@@ -5803,14 +5812,14 @@
       <c r="I93" t="s">
         <v>133</v>
       </c>
-      <c r="J93">
-        <v>1</v>
+      <c r="J93" t="s">
+        <v>118</v>
       </c>
       <c r="K93" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L93" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M93">
         <v>97</v>
@@ -5850,14 +5859,14 @@
       <c r="I94" t="s">
         <v>133</v>
       </c>
-      <c r="J94">
-        <v>1</v>
+      <c r="J94" t="s">
+        <v>118</v>
       </c>
       <c r="K94" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L94" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M94">
         <v>67</v>
@@ -5897,14 +5906,14 @@
       <c r="I95" t="s">
         <v>133</v>
       </c>
-      <c r="J95">
-        <v>1</v>
+      <c r="J95" t="s">
+        <v>118</v>
       </c>
       <c r="K95" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L95" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M95">
         <v>97</v>
@@ -5944,14 +5953,14 @@
       <c r="I96" t="s">
         <v>134</v>
       </c>
-      <c r="J96">
-        <v>1</v>
+      <c r="J96" t="s">
+        <v>118</v>
       </c>
       <c r="K96" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L96" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M96">
         <v>46</v>
@@ -5991,14 +6000,14 @@
       <c r="I97" t="s">
         <v>134</v>
       </c>
-      <c r="J97">
-        <v>1</v>
+      <c r="J97" t="s">
+        <v>118</v>
       </c>
       <c r="K97" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L97" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M97">
         <v>76</v>
@@ -6038,14 +6047,14 @@
       <c r="I98" t="s">
         <v>134</v>
       </c>
-      <c r="J98">
-        <v>1</v>
+      <c r="J98" t="s">
+        <v>118</v>
       </c>
       <c r="K98" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L98" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M98">
         <v>46</v>
@@ -6085,14 +6094,14 @@
       <c r="I99" t="s">
         <v>134</v>
       </c>
-      <c r="J99">
-        <v>1</v>
+      <c r="J99" t="s">
+        <v>118</v>
       </c>
       <c r="K99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L99" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M99">
         <v>76</v>
@@ -6132,14 +6141,14 @@
       <c r="I100" t="s">
         <v>134</v>
       </c>
-      <c r="J100">
-        <v>1</v>
+      <c r="J100" t="s">
+        <v>118</v>
       </c>
       <c r="K100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M100">
         <v>46</v>
@@ -6179,14 +6188,14 @@
       <c r="I101" t="s">
         <v>134</v>
       </c>
-      <c r="J101">
-        <v>1</v>
+      <c r="J101" t="s">
+        <v>118</v>
       </c>
       <c r="K101" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L101" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M101">
         <v>76</v>
@@ -6226,14 +6235,14 @@
       <c r="I102" t="s">
         <v>134</v>
       </c>
-      <c r="J102">
-        <v>1</v>
+      <c r="J102" t="s">
+        <v>118</v>
       </c>
       <c r="K102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L102" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M102">
         <v>46</v>
@@ -6273,14 +6282,14 @@
       <c r="I103" t="s">
         <v>134</v>
       </c>
-      <c r="J103">
-        <v>1</v>
+      <c r="J103" t="s">
+        <v>118</v>
       </c>
       <c r="K103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L103" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M103">
         <v>76</v>
@@ -6320,14 +6329,14 @@
       <c r="I104" t="s">
         <v>134</v>
       </c>
-      <c r="J104">
-        <v>1</v>
+      <c r="J104" t="s">
+        <v>118</v>
       </c>
       <c r="K104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M104">
         <v>46</v>
@@ -6367,14 +6376,14 @@
       <c r="I105" t="s">
         <v>134</v>
       </c>
-      <c r="J105">
-        <v>1</v>
+      <c r="J105" t="s">
+        <v>118</v>
       </c>
       <c r="K105" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L105" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M105">
         <v>76</v>
@@ -6414,14 +6423,14 @@
       <c r="I106" t="s">
         <v>134</v>
       </c>
-      <c r="J106">
-        <v>1</v>
+      <c r="J106" t="s">
+        <v>118</v>
       </c>
       <c r="K106" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L106" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M106">
         <v>46</v>
@@ -6461,14 +6470,14 @@
       <c r="I107" t="s">
         <v>134</v>
       </c>
-      <c r="J107">
-        <v>1</v>
+      <c r="J107" t="s">
+        <v>118</v>
       </c>
       <c r="K107" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L107" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M107">
         <v>76</v>
@@ -6508,14 +6517,14 @@
       <c r="I108" t="s">
         <v>134</v>
       </c>
-      <c r="J108">
-        <v>1</v>
+      <c r="J108" t="s">
+        <v>118</v>
       </c>
       <c r="K108" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L108" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M108">
         <v>46</v>
@@ -6555,14 +6564,14 @@
       <c r="I109" t="s">
         <v>134</v>
       </c>
-      <c r="J109">
-        <v>1</v>
+      <c r="J109" t="s">
+        <v>118</v>
       </c>
       <c r="K109" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L109" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M109">
         <v>76</v>
@@ -6602,14 +6611,14 @@
       <c r="I110" t="s">
         <v>134</v>
       </c>
-      <c r="J110">
-        <v>1</v>
+      <c r="J110" t="s">
+        <v>118</v>
       </c>
       <c r="K110" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L110" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M110">
         <v>46</v>
@@ -6649,14 +6658,14 @@
       <c r="I111" t="s">
         <v>134</v>
       </c>
-      <c r="J111">
-        <v>1</v>
+      <c r="J111" t="s">
+        <v>118</v>
       </c>
       <c r="K111" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L111" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M111">
         <v>76</v>
@@ -6696,14 +6705,14 @@
       <c r="I112" t="s">
         <v>134</v>
       </c>
-      <c r="J112">
-        <v>1</v>
+      <c r="J112" t="s">
+        <v>118</v>
       </c>
       <c r="K112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L112" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M112">
         <v>46</v>
@@ -6743,14 +6752,14 @@
       <c r="I113" t="s">
         <v>134</v>
       </c>
-      <c r="J113">
-        <v>1</v>
+      <c r="J113" t="s">
+        <v>118</v>
       </c>
       <c r="K113" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L113" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M113">
         <v>76</v>
@@ -6790,14 +6799,14 @@
       <c r="I114" t="s">
         <v>134</v>
       </c>
-      <c r="J114">
-        <v>1</v>
+      <c r="J114" t="s">
+        <v>118</v>
       </c>
       <c r="K114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L114" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M114">
         <v>46</v>
@@ -6837,14 +6846,14 @@
       <c r="I115" t="s">
         <v>134</v>
       </c>
-      <c r="J115">
-        <v>1</v>
+      <c r="J115" t="s">
+        <v>118</v>
       </c>
       <c r="K115" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M115">
         <v>76</v>
@@ -6884,14 +6893,14 @@
       <c r="I116" t="s">
         <v>134</v>
       </c>
-      <c r="J116">
-        <v>1</v>
+      <c r="J116" t="s">
+        <v>118</v>
       </c>
       <c r="K116" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L116" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M116">
         <v>46</v>
@@ -6931,14 +6940,14 @@
       <c r="I117" t="s">
         <v>134</v>
       </c>
-      <c r="J117">
-        <v>1</v>
+      <c r="J117" t="s">
+        <v>118</v>
       </c>
       <c r="K117" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L117" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M117">
         <v>76</v>
@@ -6978,14 +6987,14 @@
       <c r="I118" t="s">
         <v>134</v>
       </c>
-      <c r="J118">
-        <v>1</v>
+      <c r="J118" t="s">
+        <v>118</v>
       </c>
       <c r="K118" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L118" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M118">
         <v>46</v>
@@ -7025,14 +7034,14 @@
       <c r="I119" t="s">
         <v>134</v>
       </c>
-      <c r="J119">
-        <v>1</v>
+      <c r="J119" t="s">
+        <v>118</v>
       </c>
       <c r="K119" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L119" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M119">
         <v>76</v>
@@ -7072,14 +7081,14 @@
       <c r="I120" t="s">
         <v>133</v>
       </c>
-      <c r="J120">
-        <v>1</v>
+      <c r="J120" t="s">
+        <v>118</v>
       </c>
       <c r="K120" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L120" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M120">
         <v>67</v>
@@ -7119,14 +7128,14 @@
       <c r="I121" t="s">
         <v>134</v>
       </c>
-      <c r="J121">
-        <v>1</v>
+      <c r="J121" t="s">
+        <v>118</v>
       </c>
       <c r="K121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L121" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M121">
         <v>46</v>
@@ -7166,14 +7175,14 @@
       <c r="I122" t="s">
         <v>133</v>
       </c>
-      <c r="J122">
-        <v>1</v>
+      <c r="J122" t="s">
+        <v>118</v>
       </c>
       <c r="K122" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L122" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M122">
         <v>67</v>
@@ -7213,14 +7222,14 @@
       <c r="I123" t="s">
         <v>134</v>
       </c>
-      <c r="J123">
-        <v>1</v>
+      <c r="J123" t="s">
+        <v>118</v>
       </c>
       <c r="K123" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L123" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M123">
         <v>46</v>
@@ -7260,14 +7269,14 @@
       <c r="I124" t="s">
         <v>133</v>
       </c>
-      <c r="J124">
-        <v>1</v>
+      <c r="J124" t="s">
+        <v>118</v>
       </c>
       <c r="K124" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L124" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M124">
         <v>67</v>
@@ -7307,14 +7316,14 @@
       <c r="I125" t="s">
         <v>134</v>
       </c>
-      <c r="J125">
-        <v>1</v>
+      <c r="J125" t="s">
+        <v>118</v>
       </c>
       <c r="K125" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L125" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M125">
         <v>46</v>
@@ -7354,14 +7363,14 @@
       <c r="I126" t="s">
         <v>133</v>
       </c>
-      <c r="J126">
-        <v>1</v>
+      <c r="J126" t="s">
+        <v>118</v>
       </c>
       <c r="K126" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L126" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M126">
         <v>67</v>
@@ -7401,14 +7410,14 @@
       <c r="I127" t="s">
         <v>133</v>
       </c>
-      <c r="J127">
-        <v>1</v>
+      <c r="J127" t="s">
+        <v>118</v>
       </c>
       <c r="K127" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L127" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M127">
         <v>97</v>
@@ -7448,14 +7457,14 @@
       <c r="I128" t="s">
         <v>133</v>
       </c>
-      <c r="J128">
-        <v>1</v>
+      <c r="J128" t="s">
+        <v>118</v>
       </c>
       <c r="K128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L128" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M128">
         <v>67</v>
@@ -7495,14 +7504,14 @@
       <c r="I129" t="s">
         <v>133</v>
       </c>
-      <c r="J129">
-        <v>1</v>
+      <c r="J129" t="s">
+        <v>118</v>
       </c>
       <c r="K129" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L129" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M129">
         <v>97</v>
@@ -7542,14 +7551,14 @@
       <c r="I130" t="s">
         <v>133</v>
       </c>
-      <c r="J130">
-        <v>1</v>
+      <c r="J130" t="s">
+        <v>118</v>
       </c>
       <c r="K130" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L130" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M130">
         <v>67</v>
@@ -7589,14 +7598,14 @@
       <c r="I131" t="s">
         <v>133</v>
       </c>
-      <c r="J131">
-        <v>1</v>
+      <c r="J131" t="s">
+        <v>118</v>
       </c>
       <c r="K131" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L131" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M131">
         <v>97</v>
@@ -7636,14 +7645,14 @@
       <c r="I132" t="s">
         <v>133</v>
       </c>
-      <c r="J132">
-        <v>1</v>
+      <c r="J132" t="s">
+        <v>118</v>
       </c>
       <c r="K132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L132" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M132">
         <v>67</v>
@@ -7683,14 +7692,14 @@
       <c r="I133" t="s">
         <v>133</v>
       </c>
-      <c r="J133">
-        <v>1</v>
+      <c r="J133" t="s">
+        <v>118</v>
       </c>
       <c r="K133" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L133" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M133">
         <v>97</v>
@@ -7730,14 +7739,14 @@
       <c r="I134" t="s">
         <v>133</v>
       </c>
-      <c r="J134">
-        <v>1</v>
+      <c r="J134" t="s">
+        <v>118</v>
       </c>
       <c r="K134" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L134" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M134">
         <v>67</v>
@@ -7777,14 +7786,14 @@
       <c r="I135" t="s">
         <v>133</v>
       </c>
-      <c r="J135">
-        <v>1</v>
+      <c r="J135" t="s">
+        <v>118</v>
       </c>
       <c r="K135" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L135" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M135">
         <v>97</v>
@@ -7824,14 +7833,14 @@
       <c r="I136" t="s">
         <v>133</v>
       </c>
-      <c r="J136">
-        <v>1</v>
+      <c r="J136" t="s">
+        <v>118</v>
       </c>
       <c r="K136" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L136" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M136">
         <v>67</v>
@@ -7871,14 +7880,14 @@
       <c r="I137" t="s">
         <v>133</v>
       </c>
-      <c r="J137">
-        <v>1</v>
+      <c r="J137" t="s">
+        <v>118</v>
       </c>
       <c r="K137" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L137" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M137">
         <v>97</v>
@@ -7918,14 +7927,14 @@
       <c r="I138" t="s">
         <v>133</v>
       </c>
-      <c r="J138">
-        <v>1</v>
+      <c r="J138" t="s">
+        <v>118</v>
       </c>
       <c r="K138" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L138" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M138">
         <v>67</v>
@@ -7965,14 +7974,14 @@
       <c r="I139" t="s">
         <v>133</v>
       </c>
-      <c r="J139">
-        <v>1</v>
+      <c r="J139" t="s">
+        <v>118</v>
       </c>
       <c r="K139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L139" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M139">
         <v>97</v>
@@ -8012,14 +8021,14 @@
       <c r="I140" t="s">
         <v>133</v>
       </c>
-      <c r="J140">
-        <v>1</v>
+      <c r="J140" t="s">
+        <v>118</v>
       </c>
       <c r="K140" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L140" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M140">
         <v>67</v>
@@ -8059,14 +8068,14 @@
       <c r="I141" t="s">
         <v>133</v>
       </c>
-      <c r="J141">
-        <v>1</v>
+      <c r="J141" t="s">
+        <v>118</v>
       </c>
       <c r="K141" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L141" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M141">
         <v>97</v>
@@ -8106,14 +8115,14 @@
       <c r="I142" t="s">
         <v>133</v>
       </c>
-      <c r="J142">
-        <v>1</v>
+      <c r="J142" t="s">
+        <v>118</v>
       </c>
       <c r="K142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L142" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M142">
         <v>67</v>
@@ -8153,14 +8162,14 @@
       <c r="I143" t="s">
         <v>133</v>
       </c>
-      <c r="J143">
-        <v>1</v>
+      <c r="J143" t="s">
+        <v>118</v>
       </c>
       <c r="K143" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L143" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M143">
         <v>97</v>
@@ -8200,14 +8209,14 @@
       <c r="I144" t="s">
         <v>133</v>
       </c>
-      <c r="J144">
-        <v>1</v>
+      <c r="J144" t="s">
+        <v>118</v>
       </c>
       <c r="K144" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L144" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M144">
         <v>67</v>
@@ -8247,14 +8256,14 @@
       <c r="I145" t="s">
         <v>133</v>
       </c>
-      <c r="J145">
-        <v>1</v>
+      <c r="J145" t="s">
+        <v>118</v>
       </c>
       <c r="K145" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L145" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M145">
         <v>97</v>
@@ -8294,14 +8303,14 @@
       <c r="I146" t="s">
         <v>133</v>
       </c>
-      <c r="J146">
-        <v>1</v>
+      <c r="J146" t="s">
+        <v>118</v>
       </c>
       <c r="K146" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L146" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M146">
         <v>67</v>
@@ -8341,14 +8350,14 @@
       <c r="I147" t="s">
         <v>133</v>
       </c>
-      <c r="J147">
-        <v>1</v>
+      <c r="J147" t="s">
+        <v>118</v>
       </c>
       <c r="K147" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L147" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M147">
         <v>97</v>
@@ -8388,14 +8397,14 @@
       <c r="I148" t="s">
         <v>133</v>
       </c>
-      <c r="J148">
-        <v>1</v>
+      <c r="J148" t="s">
+        <v>118</v>
       </c>
       <c r="K148" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L148" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M148">
         <v>67</v>
@@ -8435,14 +8444,14 @@
       <c r="I149" t="s">
         <v>133</v>
       </c>
-      <c r="J149">
-        <v>1</v>
+      <c r="J149" t="s">
+        <v>118</v>
       </c>
       <c r="K149" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L149" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M149">
         <v>97</v>
@@ -8482,14 +8491,14 @@
       <c r="I150" t="s">
         <v>134</v>
       </c>
-      <c r="J150">
-        <v>1</v>
+      <c r="J150" t="s">
+        <v>118</v>
       </c>
       <c r="K150" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L150" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M150">
         <v>46</v>
@@ -8529,14 +8538,14 @@
       <c r="I151" t="s">
         <v>134</v>
       </c>
-      <c r="J151">
-        <v>1</v>
+      <c r="J151" t="s">
+        <v>118</v>
       </c>
       <c r="K151" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L151" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M151">
         <v>76</v>
@@ -8576,14 +8585,14 @@
       <c r="I152" t="s">
         <v>134</v>
       </c>
-      <c r="J152">
-        <v>1</v>
+      <c r="J152" t="s">
+        <v>118</v>
       </c>
       <c r="K152" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L152" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M152">
         <v>46</v>
@@ -8623,14 +8632,14 @@
       <c r="I153" t="s">
         <v>134</v>
       </c>
-      <c r="J153">
-        <v>1</v>
+      <c r="J153" t="s">
+        <v>118</v>
       </c>
       <c r="K153" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L153" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M153">
         <v>76</v>
@@ -8670,14 +8679,14 @@
       <c r="I154" t="s">
         <v>134</v>
       </c>
-      <c r="J154">
-        <v>1</v>
+      <c r="J154" t="s">
+        <v>118</v>
       </c>
       <c r="K154" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L154" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M154">
         <v>46</v>
@@ -8717,14 +8726,14 @@
       <c r="I155" t="s">
         <v>134</v>
       </c>
-      <c r="J155">
-        <v>1</v>
+      <c r="J155" t="s">
+        <v>118</v>
       </c>
       <c r="K155" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L155" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M155">
         <v>76</v>
@@ -8764,14 +8773,14 @@
       <c r="I156" t="s">
         <v>134</v>
       </c>
-      <c r="J156">
-        <v>1</v>
+      <c r="J156" t="s">
+        <v>118</v>
       </c>
       <c r="K156" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L156" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M156">
         <v>46</v>
@@ -8811,14 +8820,14 @@
       <c r="I157" t="s">
         <v>134</v>
       </c>
-      <c r="J157">
-        <v>1</v>
+      <c r="J157" t="s">
+        <v>118</v>
       </c>
       <c r="K157" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L157" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M157">
         <v>76</v>
@@ -8858,14 +8867,14 @@
       <c r="I158" t="s">
         <v>134</v>
       </c>
-      <c r="J158">
-        <v>1</v>
+      <c r="J158" t="s">
+        <v>118</v>
       </c>
       <c r="K158" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L158" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M158">
         <v>46</v>
@@ -8905,14 +8914,14 @@
       <c r="I159" t="s">
         <v>134</v>
       </c>
-      <c r="J159">
-        <v>1</v>
+      <c r="J159" t="s">
+        <v>118</v>
       </c>
       <c r="K159" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L159" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M159">
         <v>76</v>
@@ -8952,14 +8961,14 @@
       <c r="I160" t="s">
         <v>134</v>
       </c>
-      <c r="J160">
-        <v>1</v>
+      <c r="J160" t="s">
+        <v>118</v>
       </c>
       <c r="K160" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L160" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M160">
         <v>46</v>
@@ -8999,14 +9008,14 @@
       <c r="I161" t="s">
         <v>134</v>
       </c>
-      <c r="J161">
-        <v>1</v>
+      <c r="J161" t="s">
+        <v>118</v>
       </c>
       <c r="K161" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L161" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M161">
         <v>76</v>
@@ -9046,14 +9055,14 @@
       <c r="I162" t="s">
         <v>134</v>
       </c>
-      <c r="J162">
-        <v>1</v>
+      <c r="J162" t="s">
+        <v>118</v>
       </c>
       <c r="K162" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L162" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M162">
         <v>46</v>
@@ -9093,14 +9102,14 @@
       <c r="I163" t="s">
         <v>134</v>
       </c>
-      <c r="J163">
-        <v>1</v>
+      <c r="J163" t="s">
+        <v>118</v>
       </c>
       <c r="K163" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L163" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M163">
         <v>76</v>
@@ -9140,14 +9149,14 @@
       <c r="I164" t="s">
         <v>134</v>
       </c>
-      <c r="J164">
-        <v>1</v>
+      <c r="J164" t="s">
+        <v>118</v>
       </c>
       <c r="K164" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L164" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M164">
         <v>46</v>
@@ -9187,14 +9196,14 @@
       <c r="I165" t="s">
         <v>134</v>
       </c>
-      <c r="J165">
-        <v>1</v>
+      <c r="J165" t="s">
+        <v>118</v>
       </c>
       <c r="K165" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L165" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M165">
         <v>76</v>
@@ -9234,14 +9243,14 @@
       <c r="I166" t="s">
         <v>134</v>
       </c>
-      <c r="J166">
-        <v>1</v>
+      <c r="J166" t="s">
+        <v>118</v>
       </c>
       <c r="K166" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L166" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M166">
         <v>46</v>
@@ -9281,14 +9290,14 @@
       <c r="I167" t="s">
         <v>134</v>
       </c>
-      <c r="J167">
-        <v>1</v>
+      <c r="J167" t="s">
+        <v>118</v>
       </c>
       <c r="K167" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L167" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M167">
         <v>76</v>
@@ -9328,14 +9337,14 @@
       <c r="I168" t="s">
         <v>134</v>
       </c>
-      <c r="J168">
-        <v>1</v>
+      <c r="J168" t="s">
+        <v>118</v>
       </c>
       <c r="K168" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L168" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M168">
         <v>46</v>
@@ -9375,14 +9384,14 @@
       <c r="I169" t="s">
         <v>134</v>
       </c>
-      <c r="J169">
-        <v>1</v>
+      <c r="J169" t="s">
+        <v>118</v>
       </c>
       <c r="K169" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L169" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M169">
         <v>76</v>
@@ -9422,14 +9431,14 @@
       <c r="I170" t="s">
         <v>134</v>
       </c>
-      <c r="J170">
-        <v>1</v>
+      <c r="J170" t="s">
+        <v>118</v>
       </c>
       <c r="K170" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L170" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M170">
         <v>46</v>
@@ -9469,14 +9478,14 @@
       <c r="I171" t="s">
         <v>134</v>
       </c>
-      <c r="J171">
-        <v>1</v>
+      <c r="J171" t="s">
+        <v>118</v>
       </c>
       <c r="K171" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L171" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M171">
         <v>76</v>
@@ -9516,14 +9525,14 @@
       <c r="I172" t="s">
         <v>134</v>
       </c>
-      <c r="J172">
-        <v>1</v>
+      <c r="J172" t="s">
+        <v>118</v>
       </c>
       <c r="K172" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L172" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M172">
         <v>46</v>
@@ -9563,14 +9572,14 @@
       <c r="I173" t="s">
         <v>134</v>
       </c>
-      <c r="J173">
-        <v>1</v>
+      <c r="J173" t="s">
+        <v>118</v>
       </c>
       <c r="K173" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L173" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M173">
         <v>76</v>
@@ -9610,14 +9619,14 @@
       <c r="I174" t="s">
         <v>133</v>
       </c>
-      <c r="J174">
-        <v>2</v>
+      <c r="J174" t="s">
+        <v>136</v>
       </c>
       <c r="K174" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L174" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M174">
         <v>66</v>
@@ -9657,14 +9666,14 @@
       <c r="I175" t="s">
         <v>134</v>
       </c>
-      <c r="J175">
-        <v>2</v>
+      <c r="J175" t="s">
+        <v>136</v>
       </c>
       <c r="K175" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L175" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M175">
         <v>47</v>
@@ -9704,14 +9713,14 @@
       <c r="I176" t="s">
         <v>133</v>
       </c>
-      <c r="J176">
-        <v>2</v>
+      <c r="J176" t="s">
+        <v>136</v>
       </c>
       <c r="K176" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M176">
         <v>66</v>
@@ -9751,14 +9760,14 @@
       <c r="I177" t="s">
         <v>134</v>
       </c>
-      <c r="J177">
-        <v>2</v>
+      <c r="J177" t="s">
+        <v>136</v>
       </c>
       <c r="K177" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L177" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M177">
         <v>47</v>
@@ -9798,14 +9807,14 @@
       <c r="I178" t="s">
         <v>133</v>
       </c>
-      <c r="J178">
-        <v>2</v>
+      <c r="J178" t="s">
+        <v>136</v>
       </c>
       <c r="K178" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L178" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M178">
         <v>66</v>
@@ -9845,14 +9854,14 @@
       <c r="I179" t="s">
         <v>134</v>
       </c>
-      <c r="J179">
-        <v>2</v>
+      <c r="J179" t="s">
+        <v>136</v>
       </c>
       <c r="K179" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L179" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M179">
         <v>47</v>
@@ -9892,14 +9901,14 @@
       <c r="I180" t="s">
         <v>133</v>
       </c>
-      <c r="J180">
-        <v>2</v>
+      <c r="J180" t="s">
+        <v>136</v>
       </c>
       <c r="K180" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L180" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M180">
         <v>66</v>
@@ -9939,14 +9948,14 @@
       <c r="I181" t="s">
         <v>134</v>
       </c>
-      <c r="J181">
-        <v>2</v>
+      <c r="J181" t="s">
+        <v>136</v>
       </c>
       <c r="K181" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L181" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M181">
         <v>47</v>
@@ -9986,14 +9995,14 @@
       <c r="I182" t="s">
         <v>133</v>
       </c>
-      <c r="J182">
-        <v>2</v>
+      <c r="J182" t="s">
+        <v>136</v>
       </c>
       <c r="K182" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L182" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M182">
         <v>66</v>
@@ -10033,14 +10042,14 @@
       <c r="I183" t="s">
         <v>134</v>
       </c>
-      <c r="J183">
-        <v>2</v>
+      <c r="J183" t="s">
+        <v>136</v>
       </c>
       <c r="K183" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L183" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M183">
         <v>47</v>
@@ -10080,14 +10089,14 @@
       <c r="I184" t="s">
         <v>133</v>
       </c>
-      <c r="J184">
-        <v>2</v>
+      <c r="J184" t="s">
+        <v>136</v>
       </c>
       <c r="K184" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L184" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M184">
         <v>66</v>
@@ -10127,14 +10136,14 @@
       <c r="I185" t="s">
         <v>134</v>
       </c>
-      <c r="J185">
-        <v>2</v>
+      <c r="J185" t="s">
+        <v>136</v>
       </c>
       <c r="K185" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L185" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M185">
         <v>47</v>
@@ -10174,14 +10183,14 @@
       <c r="I186" t="s">
         <v>133</v>
       </c>
-      <c r="J186">
-        <v>2</v>
+      <c r="J186" t="s">
+        <v>136</v>
       </c>
       <c r="K186" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L186" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M186">
         <v>66</v>
@@ -10221,14 +10230,14 @@
       <c r="I187" t="s">
         <v>134</v>
       </c>
-      <c r="J187">
-        <v>2</v>
+      <c r="J187" t="s">
+        <v>136</v>
       </c>
       <c r="K187" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L187" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M187">
         <v>47</v>
@@ -10268,14 +10277,14 @@
       <c r="I188" t="s">
         <v>133</v>
       </c>
-      <c r="J188">
-        <v>2</v>
+      <c r="J188" t="s">
+        <v>136</v>
       </c>
       <c r="K188" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L188" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M188">
         <v>66</v>
@@ -10315,14 +10324,14 @@
       <c r="I189" t="s">
         <v>134</v>
       </c>
-      <c r="J189">
-        <v>2</v>
+      <c r="J189" t="s">
+        <v>136</v>
       </c>
       <c r="K189" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L189" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M189">
         <v>47</v>
@@ -10362,11 +10371,11 @@
       <c r="I190" t="s">
         <v>133</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>137</v>
       </c>
       <c r="K190" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N190">
         <v>14116151</v>
@@ -10403,11 +10412,11 @@
       <c r="I191" t="s">
         <v>134</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>137</v>
       </c>
       <c r="K191" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N191">
         <v>13974893</v>
@@ -10444,11 +10453,11 @@
       <c r="I192" t="s">
         <v>133</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>137</v>
       </c>
       <c r="K192" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N192">
         <v>13475081</v>
@@ -10485,11 +10494,11 @@
       <c r="I193" t="s">
         <v>134</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>137</v>
       </c>
       <c r="K193" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N193">
         <v>13342868</v>
@@ -10526,11 +10535,11 @@
       <c r="I194" t="s">
         <v>133</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>137</v>
       </c>
       <c r="K194" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N194">
         <v>13855904</v>
@@ -10567,11 +10576,11 @@
       <c r="I195" t="s">
         <v>134</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>137</v>
       </c>
       <c r="K195" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N195">
         <v>13728439</v>
@@ -10608,11 +10617,11 @@
       <c r="I196" t="s">
         <v>133</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>137</v>
       </c>
       <c r="K196" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N196">
         <v>11992516</v>
@@ -10649,11 +10658,11 @@
       <c r="I197" t="s">
         <v>134</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>137</v>
       </c>
       <c r="K197" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N197">
         <v>11868064</v>
@@ -10690,11 +10699,11 @@
       <c r="I198" t="s">
         <v>133</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>137</v>
       </c>
       <c r="K198" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N198">
         <v>13511783</v>
@@ -10731,11 +10740,11 @@
       <c r="I199" t="s">
         <v>134</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>137</v>
       </c>
       <c r="K199" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N199">
         <v>13397050</v>
@@ -10772,11 +10781,11 @@
       <c r="I200" t="s">
         <v>133</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>137</v>
       </c>
       <c r="K200" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N200">
         <v>13789121</v>
@@ -10813,11 +10822,11 @@
       <c r="I201" t="s">
         <v>134</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>137</v>
       </c>
       <c r="K201" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N201">
         <v>13677124</v>
@@ -10854,11 +10863,11 @@
       <c r="I202" t="s">
         <v>133</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>137</v>
       </c>
       <c r="K202" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N202">
         <v>12902873</v>
@@ -10895,11 +10904,11 @@
       <c r="I203" t="s">
         <v>134</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>137</v>
       </c>
       <c r="K203" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N203">
         <v>12777909</v>
@@ -10936,11 +10945,11 @@
       <c r="I204" t="s">
         <v>133</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>137</v>
       </c>
       <c r="K204" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N204">
         <v>13400566</v>
@@ -10977,11 +10986,11 @@
       <c r="I205" t="s">
         <v>134</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>137</v>
       </c>
       <c r="K205" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N205">
         <v>13272580</v>
